--- a/my-app/sifura_project_status.xlsx
+++ b/my-app/sifura_project_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EAG-Session20-Capstone\my-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F9D6477-53A3-4CA7-ABD0-CD0F6402D931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C360F8-CB21-42CF-89C5-6EC451BAA7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{341B430D-1B15-42D6-B6C3-E79735233242}"/>
   </bookViews>
@@ -33,6 +33,50 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Task </t>
+  </si>
+  <si>
+    <t>Base prompt Retrofit</t>
+  </si>
+  <si>
+    <t>SIP Goal Domain Prompt</t>
+  </si>
+  <si>
+    <t>Fund Recommendation Domain Prompt</t>
+  </si>
+  <si>
+    <t>SIP Goal Orchestrator Template Prompt</t>
+  </si>
+  <si>
+    <t>Fund Recommendation LLM Template Prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast API </t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>State Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Readme, Project Report, Schedule</t>
+  </si>
+  <si>
+    <t>Deployment to Azure</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +447,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB53F72-DE2B-4685-935A-D9EB2616EC4E}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45879</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45879</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45879</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45879</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45879</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45911</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45911</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45911</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45925</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45928</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45929</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45930</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/my-app/sifura_project_status.xlsx
+++ b/my-app/sifura_project_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EAG-Session20-Capstone\my-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C360F8-CB21-42CF-89C5-6EC451BAA7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E58BAE-8C20-4E65-AD97-B29D4ABDBF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{341B430D-1B15-42D6-B6C3-E79735233242}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Task </t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Deployment to Azure</t>
+  </si>
+  <si>
+    <t>Report Generation Prompt</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB53F72-DE2B-4685-935A-D9EB2616EC4E}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,18 +531,18 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>45911</v>
+        <v>45879</v>
       </c>
       <c r="D8" s="1">
-        <v>45925</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>45911</v>
@@ -550,7 +553,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>45911</v>
@@ -561,23 +564,34 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
+        <v>45911</v>
+      </c>
+      <c r="D11" s="1">
         <v>45925</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45928</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45925</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45928</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>45929</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>45930</v>
       </c>
     </row>
